--- a/data/trans_orig/P14C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{504EE620-4F6B-47E6-A055-9866E09D20A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A63835-133B-4D9C-992A-C1A791B07144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F918BED-A7A2-4AAB-A4B3-D83006269834}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1724D3A-B1D4-40E0-8584-6611AB41DE48}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="131">
   <si>
     <t>Población según el tiempo de diagnóstico de la colitis en 2015 (Tasa respuesta: 1,11%)</t>
   </si>
@@ -86,7 +86,7 @@
     <t>42,13%</t>
   </si>
   <si>
-    <t>82,81%</t>
+    <t>82,38%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,7 +104,7 @@
     <t>18,49%</t>
   </si>
   <si>
-    <t>79,52%</t>
+    <t>78,44%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -119,7 +119,7 @@
     <t>39,38%</t>
   </si>
   <si>
-    <t>81,23%</t>
+    <t>81,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,13 +134,13 @@
     <t>25,87%</t>
   </si>
   <si>
-    <t>93,14%</t>
+    <t>77,19%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>72,77%</t>
+    <t>72,57%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -152,7 +152,7 @@
     <t>27,67%</t>
   </si>
   <si>
-    <t>71,11%</t>
+    <t>71,36%</t>
   </si>
   <si>
     <t>65,31%</t>
@@ -167,10 +167,10 @@
     <t>42,58%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -185,19 +185,19 @@
     <t>40,46%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>13,22%</t>
@@ -209,52 +209,55 @@
     <t>19,26%</t>
   </si>
   <si>
-    <t>50,64%</t>
+    <t>58,78%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -263,16 +266,16 @@
     <t>13,34%</t>
   </si>
   <si>
-    <t>57,87%</t>
+    <t>57,89%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -290,19 +293,19 @@
     <t>61,18%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>37,96%</t>
@@ -311,19 +314,19 @@
     <t>38,82%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -347,82 +350,82 @@
     <t>51,58%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -837,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62998D8-0699-4F78-AD0C-526B7150499A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592DF9A6-AFE9-494C-AA2D-B8B56E8BF1D3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,7 +1600,7 @@
         <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1609,13 +1612,13 @@
         <v>6750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -1645,13 +1648,13 @@
         <v>1039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1660,13 +1663,13 @@
         <v>7671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,7 +1705,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1717,7 +1720,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,7 +1776,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1785,7 +1788,7 @@
         <v>2881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
@@ -1800,13 +1803,13 @@
         <v>8717</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -1815,13 +1818,13 @@
         <v>11598</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,7 +1839,7 @@
         <v>1763</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
@@ -1851,13 +1854,13 @@
         <v>5531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -1866,13 +1869,13 @@
         <v>7293</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1911,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1923,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,7 +1982,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1994,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>28</v>
@@ -2009,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>28</v>
@@ -2024,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>28</v>
@@ -2063,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2078,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,7 +2117,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2129,7 +2132,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2200,13 @@
         <v>13103</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -2212,13 +2215,13 @@
         <v>38611</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -2227,13 +2230,13 @@
         <v>51714</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2251,13 @@
         <v>9260</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2263,13 +2266,13 @@
         <v>11291</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -2278,13 +2281,13 @@
         <v>20550</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2302,13 @@
         <v>3042</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -2314,13 +2317,13 @@
         <v>5830</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2329,13 +2332,13 @@
         <v>8872</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2394,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C05-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A63835-133B-4D9C-992A-C1A791B07144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6F10B6-20B0-4FBF-8299-EEE7DB4637B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1724D3A-B1D4-40E0-8584-6611AB41DE48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12D80527-8C6A-4755-B107-E257B900FA8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="131">
   <si>
-    <t>Población según el tiempo de diagnóstico de la colitis en 2015 (Tasa respuesta: 1,11%)</t>
+    <t>Población según el tiempo de diagnóstico de la colitis en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -104,7 +104,7 @@
     <t>18,49%</t>
   </si>
   <si>
-    <t>78,44%</t>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -119,7 +119,7 @@
     <t>39,38%</t>
   </si>
   <si>
-    <t>81,1%</t>
+    <t>81,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>72,57%</t>
+    <t>72,44%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -152,7 +152,7 @@
     <t>27,67%</t>
   </si>
   <si>
-    <t>71,36%</t>
+    <t>71,21%</t>
   </si>
   <si>
     <t>65,31%</t>
@@ -167,10 +167,10 @@
     <t>42,58%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -185,19 +185,19 @@
     <t>40,46%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>13,22%</t>
@@ -209,16 +209,16 @@
     <t>19,26%</t>
   </si>
   <si>
-    <t>58,78%</t>
+    <t>51,48%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -227,19 +227,19 @@
     <t>40,28%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,16 +248,16 @@
     <t>86,66%</t>
   </si>
   <si>
-    <t>42,11%</t>
+    <t>42,29%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -266,16 +266,16 @@
     <t>13,34%</t>
   </si>
   <si>
-    <t>57,89%</t>
+    <t>57,71%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -293,19 +293,19 @@
     <t>61,18%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
   </si>
   <si>
     <t>37,96%</t>
@@ -314,19 +314,19 @@
     <t>38,82%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -350,64 +350,64 @@
     <t>51,58%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>10,46%</t>
@@ -416,16 +416,16 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>20,82%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592DF9A6-AFE9-494C-AA2D-B8B56E8BF1D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E84B7A4-12C4-4D3C-8366-9E98A3844DB4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
